--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0697C0EE-893C-474C-B1EA-692CC7670CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C5DD5-8181-487D-B16D-077E38DDE542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="知识点" sheetId="1" r:id="rId1"/>
+    <sheet name="tricks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -43,12 +44,68 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.getOrDefault(key,defaultValue);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从map里面去此key的值，如果没取到，就使用 defaultValue,这里的defaultValue是输入指定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30. 串联所有单词的子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口法； 也就是固定大小，逐个遍历的意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tricks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leetCode题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解题思路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +134,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,11 +169,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,24 +468,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="70.625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -410,4 +506,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43926</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86C5DD5-8181-487D-B16D-077E38DDE542}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FA267-29CF-4FCB-B4A0-1C1162D57A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30. 串联所有单词的子串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动窗口法； 也就是固定大小，逐个遍历的意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,43 @@
   </si>
   <si>
     <t>解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单调栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用单调栈的性质让其全部出栈，即在原始数组后添一个0.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义：栈内的元素是单调递增或者单调递减的；每当一个元素压入栈TOP位置时，其他位置比此元素大或者小的，都会被POP OUT；
+trick： 适用于单个数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char的数据类型，是Character
+this.mappings = new HashMap&lt;Character, Character&gt;();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 失败，开始想到用map去get，判断是不是同一个字符串，结果没搞清char的类型定义是Charcter，就想到用s.subString和tocharArray去搞
+2. 失败，本来相对栈，结果看到了队列，队列也没用好。 队列是Queue, 栈是Stack; 凡是没匹配上的，就压入栈，凡是匹配上的，就两个一起弹出；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈 stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push(): 线程安全的添加一个元素到栈顶（数组的末尾）
+pop(): 弹出顶层元素（数据末尾的元素，并在数组中删除）
+peek():弹出顶层的元素（数组末尾的元素，不删除）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,17 +209,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -487,18 +520,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="82.5" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -510,17 +565,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="7" customWidth="1"/>
@@ -528,38 +583,38 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -567,11 +622,33 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="3">
         <v>43926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FA267-29CF-4FCB-B4A0-1C1162D57A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BE889-A8A5-4DE6-83E9-56614C3D7F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
     <sheet name="tricks" sheetId="2" r:id="rId2"/>
+    <sheet name="递归专项" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -133,12 +134,159 @@
 peek():弹出顶层的元素（数组末尾的元素，不删除）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用递归访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 失败；链表的访问就是操作next；
+2. 失败； 递归都不会写；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 链表的访问就是操作next；
+2. 链表中的递归使用，要使用有返回值的递归；
+3. 递归中，各种条件的判断十分重要，不能随便最后加一个return 什么鬼
+4. 链表就是返回表头，用表头第一个元素来代表链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26，27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，在于没有想清楚怎么移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没什么可以总结的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败，没想到subString(int start, int end) 我还以为是从subString(int start, int index) ；不是从start开始，取index位，而是从start开始，取到end位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 滑动窗口，就是两个坐标l,r. 然后subString(l,r) 来取一段字符串，去和目标比较；
+2. for循环里面的 i&lt;string.length,  不一定非要是字符串的长度，可以通过+1来控制循环访问到最后一个元素，只要for循环里面的方法能抗的住就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public String countAndSay(int n) {
+      StringBuilder s = new StringBuilder();
+      int p1 = 0;        int cur = 1;     
+      if ( n == 1 )  return "1";
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>String str = countAndSay(n - 1);  点金之笔，巧妙的利用了这一个递归，将递归顺序反了过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+        for ( cur = 1; cur &lt; str.length(); cur++ ) {
+            if ( str.charAt(p1) != str.charAt(cur) ) {
+                int count = cur - p1;
+                s.append(count).append(str.charAt(p1));
+                p1 = cur;
+            }   }
+        if ( p1 != cur ){
+            int count = cur - p1;
+            s.append(count).append(str.charAt(p1));     }
+        return s.toString();
+    }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红黑树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己暴力求解的。不懂什么是动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>什么叫动态规划？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 动态规划就是把一个复杂的问题， 分解成几个简单的问题，单独求解；这就是分治的思想；公司的管理就是分治的思想，也就是动态规划；项目交付，可以分解为SE分析需求，开发实现需求，测试验证需求等，所有的子任务都完成了，那么总体目标就达成了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baijiahao.baidu.com/s?id=1631319141857419948&amp;wfr=spider&amp;for=pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四大算法搞定95%的题目； 
+贪心算法；
+分治算法（递归）；
+动态规划
+穷举；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是贪心算法？ 把问题分解成若干个子问题， 每个子问题求出最优解，再合并每个问题的最优解，得到的就认为是全局的最优解。 当然可能不是。 但是就这么认为是了，所以叫贪心算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://baijiahao.baidu.com/s?id=1642122740570394361&amp;wfr=spider&amp;for=pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +323,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,10 +370,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -221,9 +393,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +687,11 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="99.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,7 +699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="66" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -545,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,19 +732,79 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{5A0D7A97-C469-427A-A18D-C1913473729F}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{793212F1-5F0B-49A2-8CB0-2622460130E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -636,6 +872,9 @@
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
@@ -649,6 +888,89 @@
       </c>
       <c r="F4" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD99117-2C8C-4221-ABB2-21CA87F7F58D}">
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="8"/>
+    <col min="3" max="3" width="99.625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="264" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445BE889-A8A5-4DE6-83E9-56614C3D7F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC5587-D9E2-458B-AD42-66878BDB19CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21885" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -279,6 +279,45 @@
   </si>
   <si>
     <t>https://baijiahao.baidu.com/s?id=1642122740570394361&amp;wfr=spider&amp;for=pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>失败，没看到是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺序链表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 链表操作中，node = node.next; 这个操作不会出现当前节点被下一个节点替代的情况，实际就是直接访问下一个指针而已；
+2. 操作链表根本不需要递归，用 1中的 node=node.next就可以访问到;
+3. 链表替换节点，就是node.next=node.next.next; 
+4. 记得访问到最后的时候，不要返回这个对象，因为它是最后一个节点，记得一开始把头节点记下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做出来一点。 树型结构的比较，先比较左树，再比较右树，再比较中树等，可以用 return (左边比较) &amp;&amp; (右边比较) &amp;&amp; (中间比较) 这种方式来写代码，比较简洁和简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多种关系比较的技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求树形结构的最大深度， 技巧，用递归返回值 +1 来求递归深度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次搞定，用的BSF；但是看了题解，还可以使用 Queue来遍历树； Queue.add(),把树或者链表的头加进去，当你使用 Queue.poll的时候， 会自动弹出头，然后当前就是下一个节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -801,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -938,6 +977,56 @@
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>83</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>104</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43966</v>
       </c>
     </row>
   </sheetData>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AC5587-D9E2-458B-AD42-66878BDB19CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330AFEC-79C8-4E5B-836A-82182D0B84CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用递归访问</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,6 +314,53 @@
   </si>
   <si>
     <t>一次搞定，用的BSF；但是看了题解，还可以使用 Queue来遍历树； Queue.add(),把树或者链表的头加进去，当你使用 Queue.poll的时候， 会自动弹出头，然后当前就是下一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试04.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>太他妈二了，题目都审错了；
+实现一个函数，检查二叉树是否平衡。在这个问题中，平衡树的定义如下：任意一个节点，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其两棵子树的高度差不超过 1。 （没有最小高度，而是说所有数的最大高度，不超过1）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列，双向/单向队列等；
+offer; peek; poll;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList是实现众多接口后的双向链表；
+getFirst;getLast;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -434,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,63 +761,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="99.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="66" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -779,59 +829,76 @@
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="82.5" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="82.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{5A0D7A97-C469-427A-A18D-C1913473729F}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{793212F1-5F0B-49A2-8CB0-2622460130E9}"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{5A0D7A97-C469-427A-A18D-C1913473729F}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{793212F1-5F0B-49A2-8CB0-2622460130E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -840,16 +907,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="59.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="1" customWidth="1"/>
@@ -937,10 +1004,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
@@ -951,13 +1018,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.35">
@@ -965,10 +1032,10 @@
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -976,7 +1043,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="132" x14ac:dyDescent="0.35">
@@ -984,10 +1051,10 @@
         <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
@@ -995,10 +1062,10 @@
         <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G10" s="3">
         <v>43962</v>
@@ -1009,10 +1076,10 @@
         <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3">
         <v>43962</v>
@@ -1023,10 +1090,18 @@
         <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3">
         <v>43966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1116,7 @@
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330AFEC-79C8-4E5B-836A-82182D0B84CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD98079-F118-4689-B521-E4865E601560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="知识点" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -361,6 +361,10 @@
   <si>
     <t>LinkedList是实现众多接口后的双向链表；
 getFirst;getLast;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困在了递归的设计上；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -907,10 +911,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1102,6 +1106,14 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/leetCode.xlsx
+++ b/leetCode.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeClub\2019\leetCodePractise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD98079-F118-4689-B521-E4865E601560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B7E131-BAC4-4A35-A898-9CE49CFADA3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">散列表（Hash table，也叫哈希表），是根据关键码值(Key value)而直接进行访问的数据结构。也就是说，它通过把关键码值映射到表中一个位置来访问记录，以加快查找的速度。这个映射函数叫做散列函数，存放记录的数组叫做散列表。
@@ -365,6 +365,22 @@
   </si>
   <si>
     <t>困在了递归的设计上；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Offer 55 - II. 平衡二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node=node.left; 减左枝； node=node.right 减右枝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -898,6 +914,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -911,10 +932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C43AF6-89CC-4D7B-9CA4-66EBA906A85C}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1114,6 +1135,17 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
